--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23820" windowHeight="12020" activeTab="2"/>
+    <workbookView windowWidth="27500" windowHeight="11860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>找到自己合适的副业</t>
   </si>
   <si>
-    <t>自己擅长、喜欢、能持续盈利、不可预期</t>
+    <t>自己擅长、喜欢、能持续盈利、不可预期，比如做投资人</t>
   </si>
   <si>
     <t>开始时间:</t>
@@ -99,8 +99,8 @@
     <t>结束时间:</t>
   </si>
   <si>
-    <t>规划纲领： -</t>
+    <t>规划一：发展计划（积累人脉）:技术管理-&gt;产品专家-&gt;业务负责人-&gt;行业专家-&gt;企业高管
+规划二：公务员+第二副业（投资人/up主等）</t>
   </si>
   <si>
     <t>年份</t>
@@ -171,8 +171,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -204,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -213,20 +220,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -241,41 +248,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,24 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,13 +275,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +289,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -341,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,49 +443,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,133 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,17 +913,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +927,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,25 +988,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,145 +1006,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1180,7 +1180,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2621,8 +2621,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
@@ -2956,7 +2956,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3365384615385" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="11860" activeTab="2"/>
+    <workbookView windowWidth="27500" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>分类</t>
   </si>
@@ -36,31 +36,73 @@
     <t>每周至少锻炼30分钟</t>
   </si>
   <si>
+    <t>每天至少七小时睡眠</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>重点面部：每天保养</t>
+  </si>
+  <si>
+    <t>眼袋保养</t>
+  </si>
+  <si>
+    <t>防辐射眼睛+定时闭幕休息+眼睛防疲惫</t>
+  </si>
+  <si>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>每天至少看书30分钟</t>
+  </si>
+  <si>
+    <t>每天冥想十分钟</t>
+  </si>
+  <si>
+    <t>人脉建设</t>
+  </si>
+  <si>
+    <t>至少每周进行一次，年纪越大越重要</t>
+  </si>
+  <si>
+    <t>修养</t>
+  </si>
+  <si>
+    <t>控制情绪</t>
+  </si>
+  <si>
+    <t>泰山崩于前而面不改</t>
+  </si>
+  <si>
+    <t>做事</t>
+  </si>
+  <si>
+    <t>不拖沓</t>
+  </si>
+  <si>
+    <t>作息</t>
+  </si>
+  <si>
+    <t>七点必须起床</t>
+  </si>
+  <si>
+    <t>八点前尝试锻炼</t>
+  </si>
+  <si>
+    <t>锻炼才能有精气神+思考时间</t>
+  </si>
+  <si>
+    <t>适当午睡</t>
+  </si>
+  <si>
+    <t>恢复元气</t>
+  </si>
+  <si>
     <t>十二点前必须睡</t>
   </si>
   <si>
-    <t>能力</t>
-  </si>
-  <si>
-    <t>每天至少看书30分钟</t>
-  </si>
-  <si>
-    <t>每天冥想十分钟</t>
-  </si>
-  <si>
-    <t>修养</t>
-  </si>
-  <si>
-    <t>控制情绪</t>
-  </si>
-  <si>
-    <t>泰山崩于前而面不改</t>
-  </si>
-  <si>
-    <t>做事</t>
-  </si>
-  <si>
-    <t>不拖沓</t>
+    <t>铁律不能修改</t>
   </si>
   <si>
     <t>关注自我</t>
@@ -171,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -194,13 +236,6 @@
       <color indexed="8"/>
       <name val="SimSong Bold"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,6 +259,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -240,9 +298,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,91 +382,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,13 +491,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,24 +659,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,138 +666,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,46 +959,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,6 +991,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1001,157 +1019,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1164,10 +1206,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,7 +1288,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1254,19 +1296,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1369,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2474,20 +2519,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3365384615385" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="19.0673076923077" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.8942307692308" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0673076923077" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6153846153846" style="1" customWidth="1"/>
     <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2527,91 +2573,155 @@
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
       <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="38" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="36"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="36"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="36"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>12</v>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="36"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="36"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="36"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="36"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="36"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="36"/>
     </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2621,11 +2731,11 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.4519230769231" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
@@ -2637,7 +2747,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2646,19 +2756,19 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
@@ -2803,7 +2913,7 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2868,7 +2978,7 @@
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
       <c r="A32" s="27" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2877,13 +2987,13 @@
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="28" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2943,7 +3053,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2955,11 +3065,11 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3365384615385" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
@@ -2978,7 +3088,7 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
         <v>20210101</v>
@@ -2989,7 +3099,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7">
         <v>20260101</v>
@@ -3000,7 +3110,7 @@
     </row>
     <row r="4" ht="80.8" customHeight="1" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3009,19 +3119,19 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:5">
@@ -3029,39 +3139,39 @@
         <v>2021</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:5">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -3084,50 +3194,50 @@
         <v>2022</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:5">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:5">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:5">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="18" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -3143,7 +3253,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3152,7 +3262,7 @@
     <row r="17" ht="13.35" customHeight="1" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3170,7 +3280,7 @@
         <v>2024</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -3179,7 +3289,7 @@
     <row r="20" ht="13.35" customHeight="1" spans="1:5">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -3197,7 +3307,7 @@
         <v>2025</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3206,7 +3316,7 @@
     <row r="23" ht="13.35" customHeight="1" spans="1:5">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -3236,7 +3346,7 @@
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27500" windowHeight="11860"/>
+    <workbookView windowHeight="16360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>进入大健康行业</t>
   </si>
   <si>
-    <t>工资略涨、java专家、行业内独角兽级别</t>
+    <t>工资略涨、java专家、行业内独角兽级别（大公司能够满足落户需求）</t>
   </si>
   <si>
     <t>时间的相对自由</t>
@@ -213,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -252,8 +252,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,13 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -282,25 +307,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,9 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,30 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,18 +491,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,19 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,133 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,9 +948,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,32 +961,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1005,17 +981,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,11 +1020,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,148 +1048,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2521,7 +2521,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3065,15 +3065,15 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.35576923076923" style="1" customWidth="1"/>
     <col min="6" max="16384" width="16.3557692307692" style="1" customWidth="1"/>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16360" activeTab="2"/>
+    <workbookView windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>分类</t>
   </si>
@@ -84,13 +84,13 @@
     <t>作息</t>
   </si>
   <si>
-    <t>七点必须起床</t>
-  </si>
-  <si>
-    <t>八点前尝试锻炼</t>
-  </si>
-  <si>
-    <t>锻炼才能有精气神+思考时间</t>
+    <t>七点起床</t>
+  </si>
+  <si>
+    <t>八点吃饭</t>
+  </si>
+  <si>
+    <t>八点前可以尝试锻炼，锻炼才能有精气神+思考时间</t>
   </si>
   <si>
     <t>适当午睡</t>
@@ -99,7 +99,13 @@
     <t>恢复元气</t>
   </si>
   <si>
-    <t>十二点前必须睡</t>
+    <t>十一点冥想</t>
+  </si>
+  <si>
+    <t>一天的复盘</t>
+  </si>
+  <si>
+    <t>十二点睡觉</t>
   </si>
   <si>
     <t>铁律不能修改</t>
@@ -213,9 +219,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -239,6 +245,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -253,38 +266,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -293,30 +275,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +290,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,21 +366,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,16 +379,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,55 +503,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,115 +653,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,11 +954,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,30 +966,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,16 +986,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,11 +1015,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,148 +1054,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,11 +1444,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2511,30 +2512,31 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.0673076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6153846153846" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6160714285714" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
@@ -2683,7 +2685,7 @@
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
       <c r="A19" s="38"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -2692,8 +2694,12 @@
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
       <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="36"/>
+      <c r="B20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
       <c r="A21" s="38"/>
@@ -2709,6 +2715,11 @@
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="36"/>
+    </row>
+    <row r="24" ht="13.35" customHeight="1" spans="1:3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2716,7 +2727,7 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
@@ -2727,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -2735,19 +2746,19 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4519230769231" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.2980769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68269230769231" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4553571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.0446428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.2946428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8482142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.67857142857143" style="1" customWidth="1"/>
     <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2756,19 +2767,19 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
@@ -2913,7 +2924,7 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -2978,7 +2989,7 @@
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
       <c r="A32" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -2987,13 +2998,13 @@
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
       <c r="A33" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -3059,24 +3070,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90384615384615" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35576923076923" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8392857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.3035714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.35714285714286" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1" spans="1:5">
@@ -3088,7 +3099,7 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4">
         <v>20210101</v>
@@ -3099,7 +3110,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7">
         <v>20260101</v>
@@ -3110,7 +3121,7 @@
     </row>
     <row r="4" ht="80.8" customHeight="1" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3119,19 +3130,19 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:5">
@@ -3139,39 +3150,39 @@
         <v>2021</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:5">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -3194,50 +3205,50 @@
         <v>2022</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:5">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:5">
       <c r="A13" s="15"/>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:5">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -3253,7 +3264,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -3262,7 +3273,7 @@
     <row r="17" ht="13.35" customHeight="1" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -3280,7 +3291,7 @@
         <v>2024</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -3289,7 +3300,7 @@
     <row r="20" ht="13.35" customHeight="1" spans="1:5">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -3307,7 +3318,7 @@
         <v>2025</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3316,7 +3327,7 @@
     <row r="23" ht="13.35" customHeight="1" spans="1:5">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16360"/>
+    <workbookView windowWidth="27400" windowHeight="14700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>分类</t>
   </si>
@@ -154,55 +154,69 @@
     <t>年份</t>
   </si>
   <si>
+    <t>反思</t>
+  </si>
+  <si>
     <t>整理完善的面试资料</t>
   </si>
   <si>
     <t>老知识整理、新知识扩展、技术专家标准</t>
   </si>
   <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>积极性不高+绝大多数经历投入到了工作</t>
+  </si>
+  <si>
+    <t>现有工作</t>
+  </si>
+  <si>
+    <t>高年终奖+自身成长</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>掌握考公的套路</t>
+  </si>
+  <si>
+    <t>招聘、学习、考试、岗位</t>
+  </si>
+  <si>
+    <t>进入大健康行业</t>
+  </si>
+  <si>
+    <t>工资略涨、java专家、行业内独角兽级别（大公司能够满足落户需求）</t>
+  </si>
+  <si>
+    <t>1、积极性不高，当意识到的时候发现时间有点晚了
+2、资料整理+复习耗费了太多时间，碎片化学习记不住
+3、岗位较往年极少</t>
+  </si>
+  <si>
+    <t>时间的相对自由</t>
+  </si>
+  <si>
+    <t>离家近、加班少</t>
+  </si>
+  <si>
+    <t>参加公务员考试</t>
+  </si>
+  <si>
+    <t>优先考虑昆山、苏州，其次大丰</t>
+  </si>
+  <si>
+    <t>无目标+无积极性</t>
+  </si>
+  <si>
+    <t>成为大健康业务专家</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
     <t>进行中</t>
-  </si>
-  <si>
-    <t>现有工作</t>
-  </si>
-  <si>
-    <t>高年终奖+自身成长</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>掌握考公的套路</t>
-  </si>
-  <si>
-    <t>招聘、学习、考试、岗位</t>
-  </si>
-  <si>
-    <t>未进行</t>
-  </si>
-  <si>
-    <t>进入大健康行业</t>
-  </si>
-  <si>
-    <t>工资略涨、java专家、行业内独角兽级别（大公司能够满足落户需求）</t>
-  </si>
-  <si>
-    <t>时间的相对自由</t>
-  </si>
-  <si>
-    <t>离家近、加班少</t>
-  </si>
-  <si>
-    <t>参加公务员考试</t>
-  </si>
-  <si>
-    <t>优先考虑昆山、苏州，其次大丰</t>
-  </si>
-  <si>
-    <t>成为大健康业务专家</t>
-  </si>
-  <si>
-    <t>成为大健康产品</t>
   </si>
   <si>
     <t>成为大健康产品专家</t>
@@ -219,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -266,6 +280,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -273,9 +310,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,60 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,17 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,14 +408,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -422,19 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,31 +517,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,126 +679,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -773,6 +787,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -790,12 +817,66 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -813,6 +894,32 @@
       </top>
       <bottom style="thin">
         <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +1070,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -970,16 +1103,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1000,52 +1142,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,136 +1164,136 @@
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,11 +1302,11 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1236,91 +1343,115 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1444,6 +1575,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2512,214 +2648,213 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.0714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0673076923077" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6160714285714" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6153846153846" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="44"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="44"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="44"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2738,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -2746,24 +2881,24 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4553571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0446428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.2946428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8482142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4519230769231" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.2980769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.68269230769231" style="1" customWidth="1"/>
     <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
@@ -2783,273 +2918,273 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3070,24 +3205,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8392857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.3035714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.35714285714286" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6634615384615" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1" spans="1:5">
@@ -3126,7 +3261,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
       <c r="A5" s="11" t="s">
@@ -3138,222 +3273,234 @@
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="13">
         <v>2021</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A11" s="19">
+      <c r="A11" s="23">
         <v>2022</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="15"/>
+      <c r="C11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A16" s="23">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="D17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A19" s="23">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A16" s="19">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A19" s="19">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A22" s="19">
+      <c r="A22" s="23">
         <v>2025</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D11:D14">
-      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27400" windowHeight="14700" activeTab="2"/>
+    <workbookView windowHeight="17040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>分类</t>
   </si>
@@ -132,10 +132,22 @@
     <t>关注事业</t>
   </si>
   <si>
+    <t>主业</t>
+  </si>
+  <si>
+    <t>一份长期稳定的工作</t>
+  </si>
+  <si>
+    <t>不用担心失业，工作强度不是太大（事业编/国企）</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>副业</t>
   </si>
   <si>
-    <t>找到自己合适的副业</t>
+    <t>利用技术打造自己的第二成长曲线</t>
   </si>
   <si>
     <t>自己擅长、喜欢、能持续盈利、不可预期，比如做投资人</t>
@@ -152,6 +164,9 @@
   </si>
   <si>
     <t>年份</t>
+  </si>
+  <si>
+    <t>优先级</t>
   </si>
   <si>
     <t>反思</t>
@@ -216,16 +231,28 @@
     <t>同上</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>成为大健康产品专家</t>
-  </si>
-  <si>
-    <t>成为大健康业务负责人</t>
-  </si>
-  <si>
-    <t>成为公务员</t>
+    <t>没想好是否要考公务员</t>
+  </si>
+  <si>
+    <t>高估了自己，低估了市场</t>
+  </si>
+  <si>
+    <t>参加上海事业编考试</t>
+  </si>
+  <si>
+    <t>希望能成功考进</t>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+  </si>
+  <si>
+    <t>进入理想企业</t>
+  </si>
+  <si>
+    <t>央企/国企/优秀私企 （养老、医疗、金融、保险等）</t>
+  </si>
+  <si>
+    <t>重要紧急</t>
   </si>
 </sst>
 </file>
@@ -233,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -273,6 +300,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -280,23 +314,100 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,76 +423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,23 +435,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,7 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,37 +544,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,144 +718,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -830,9 +863,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -894,6 +925,21 @@
       </top>
       <bottom style="thin">
         <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1016,32 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -1070,11 +1142,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,63 +1220,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,152 +1233,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,7 +1427,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,9 +1439,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1379,79 +1448,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2675,186 +2771,186 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="49"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="52"/>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="52" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="52" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="52"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="52"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="52"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="52"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="52"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="52" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="52"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2877,8 +2973,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
@@ -2887,18 +2983,18 @@
     <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.2980769230769" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68269230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5865384615385" style="1" customWidth="1"/>
     <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
@@ -2918,273 +3014,283 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="D33" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3209,32 +3315,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6634615384615" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6634615384615" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1" spans="1:5">
+    <row r="1" ht="13.65" customHeight="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="14" customHeight="1" spans="1:5">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4">
         <v>20210101</v>
@@ -3242,10 +3350,11 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="14" customHeight="1" spans="1:5">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="7">
         <v>20260101</v>
@@ -3253,19 +3362,21 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="80.8" customHeight="1" spans="1:5">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" ht="80.8" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>33</v>
@@ -3274,232 +3385,262 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1" spans="1:5">
+      <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" spans="1:6">
       <c r="A6" s="13">
         <v>2021</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" ht="13.35" customHeight="1" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="13.35" customHeight="1" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" ht="13.35" customHeight="1" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" ht="13.35" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="F8" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="13.35" customHeight="1" spans="1:5">
+    </row>
+    <row r="9" ht="13.35" customHeight="1" spans="1:6">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" ht="13.35" customHeight="1" spans="1:5">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" ht="13.35" customHeight="1" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A11" s="23">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A11" s="22">
         <v>2022</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" ht="13.35" customHeight="1" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" ht="13.35" customHeight="1" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" ht="13.35" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="13.35" customHeight="1" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" ht="13.35" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" ht="13.35" customHeight="1" spans="1:6">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A16" s="23">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A16" s="22">
         <v>2023</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" ht="13.35" customHeight="1" spans="1:5">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" ht="13.35" customHeight="1" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:6">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A19" s="23">
+      <c r="D18" s="23"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A19" s="22">
         <v>2024</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="13.35" customHeight="1" spans="1:5">
+      <c r="E19" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="13.35" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="13.35" customHeight="1" spans="1:5">
+      <c r="E20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="13.35" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A22" s="23">
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A22" s="22">
         <v>2025</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-    </row>
-    <row r="23" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" ht="13.35" customHeight="1" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-    </row>
-    <row r="24" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="13.35" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040" activeTab="1"/>
+    <workbookView windowHeight="15760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>分类</t>
   </si>
@@ -249,10 +249,16 @@
     <t>进入理想企业</t>
   </si>
   <si>
-    <t>央企/国企/优秀私企 （养老、医疗、金融、保险等）</t>
+    <t>央企/国企/优秀私企 （养老、医疗、金融、保险等）目的是闲和稳定</t>
   </si>
   <si>
     <t>重要紧急</t>
+  </si>
+  <si>
+    <t>第二成长曲线</t>
+  </si>
+  <si>
+    <t>能够完成单机pc游戏的逆向开发/微信游戏开发流程掌握</t>
   </si>
 </sst>
 </file>
@@ -260,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -299,39 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,23 +329,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,23 +365,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,14 +405,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -423,14 +436,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,31 +550,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,13 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,19 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,103 +694,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,15 +1155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1173,6 +1170,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1187,188 +1234,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1378,7 +1384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1454,9 +1460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1474,9 +1477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2771,186 +2771,186 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="50"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="50"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2973,7 +2973,7 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2988,13 +2988,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
@@ -3014,283 +3014,283 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3317,8 +3317,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
@@ -3387,7 +3387,7 @@
       <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -3405,10 +3405,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3421,10 +3421,10 @@
         <v>56</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
@@ -3435,10 +3435,10 @@
         <v>59</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3447,16 +3447,16 @@
       <c r="B9" s="17"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:6">
       <c r="A11" s="22">
@@ -3469,10 +3469,10 @@
         <v>61</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3485,10 +3485,10 @@
         <v>64</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
@@ -3499,10 +3499,10 @@
         <v>66</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3513,10 +3513,10 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3525,8 +3525,8 @@
       <c r="B15" s="17"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:6">
       <c r="A16" s="22">
@@ -3537,10 +3537,10 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3553,10 +3553,10 @@
         <v>61</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:6">
@@ -3579,7 +3579,7 @@
         <v>73</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="17"/>
@@ -3593,17 +3593,23 @@
         <v>76</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="32" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="E21" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="F21" s="17"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:6">

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15760" activeTab="2"/>
+    <workbookView windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>分类</t>
   </si>
@@ -75,6 +75,18 @@
     <t>泰山崩于前而面不改</t>
   </si>
   <si>
+    <t>理清处理问题</t>
+  </si>
+  <si>
+    <t>不要掺杂任何个人感情色彩</t>
+  </si>
+  <si>
+    <t>要爱笑</t>
+  </si>
+  <si>
+    <t>一个微笑有时候能解决不少潜在问题</t>
+  </si>
+  <si>
     <t>做事</t>
   </si>
   <si>
@@ -129,6 +141,18 @@
     <t>关注生活/家庭</t>
   </si>
   <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>全家旅游一次</t>
+  </si>
+  <si>
+    <t>去成都旅游/重启/海南全家旅游一次</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>关注事业</t>
   </si>
   <si>
@@ -139,9 +163,6 @@
   </si>
   <si>
     <t>不用担心失业，工作强度不是太大（事业编/国企）</t>
-  </si>
-  <si>
-    <t>进行中</t>
   </si>
   <si>
     <t>副业</t>
@@ -267,9 +288,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -292,7 +313,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +328,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,129 +457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,13 +571,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +691,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,133 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,6 +1161,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1151,6 +1181,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,203 +1255,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,13 +1520,13 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2759,7 +2780,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
@@ -2860,20 +2881,28 @@
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
       <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
       <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
       <c r="A13" s="51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="50"/>
     </row>
@@ -2889,47 +2918,47 @@
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
       <c r="A16" s="52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="50"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
       <c r="A17" s="52"/>
       <c r="B17" s="49" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
       <c r="A18" s="52"/>
       <c r="B18" s="53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
       <c r="A20" s="52"/>
       <c r="B20" s="49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
@@ -2974,7 +3003,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
@@ -2989,7 +3018,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
       <c r="A1" s="33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2998,19 +3027,19 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
@@ -3155,7 +3184,7 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
       <c r="A23" s="37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -3163,10 +3192,18 @@
       <c r="E23" s="36"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="36"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
@@ -3219,41 +3256,41 @@
       <c r="E31" s="36"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="40"/>
+      <c r="A33" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
       <c r="A34" s="41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="42" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>41</v>
       </c>
       <c r="E34" s="42"/>
     </row>
@@ -3318,7 +3355,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
@@ -3342,7 +3379,7 @@
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4">
         <v>20210101</v>
@@ -3354,7 +3391,7 @@
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7">
         <v>20260101</v>
@@ -3366,7 +3403,7 @@
     </row>
     <row r="4" ht="80.8" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3376,22 +3413,22 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:6">
@@ -3399,47 +3436,47 @@
         <v>2021</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="27" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F7" s="28"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:6">
@@ -3463,61 +3500,61 @@
         <v>2022</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F12" s="30"/>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:6">
@@ -3533,31 +3570,31 @@
         <v>2023</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:6">
@@ -3573,42 +3610,42 @@
         <v>2024</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
       <c r="B21" s="17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F21" s="17"/>
     </row>

--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16440" activeTab="2"/>
+    <workbookView windowWidth="23320" windowHeight="12720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
     <sheet name="梦想清单" sheetId="3" r:id="rId2"/>
-    <sheet name="第一个五年规划" sheetId="4" r:id="rId3"/>
+    <sheet name="三年计划" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>分类</t>
   </si>
@@ -96,31 +109,46 @@
     <t>作息</t>
   </si>
   <si>
-    <t>七点起床</t>
-  </si>
-  <si>
-    <t>八点吃饭</t>
-  </si>
-  <si>
-    <t>八点前可以尝试锻炼，锻炼才能有精气神+思考时间</t>
-  </si>
-  <si>
-    <t>适当午睡</t>
-  </si>
-  <si>
-    <t>恢复元气</t>
-  </si>
-  <si>
-    <t>十一点冥想</t>
-  </si>
-  <si>
-    <t>一天的复盘</t>
-  </si>
-  <si>
-    <t>十二点睡觉</t>
-  </si>
-  <si>
-    <t>铁律不能修改</t>
+    <t>上午10点-晚上7点</t>
+  </si>
+  <si>
+    <t>工作时间,需求时可以冥想复盘</t>
+  </si>
+  <si>
+    <t>晚上7点-晚上10点</t>
+  </si>
+  <si>
+    <t>副业时间</t>
+  </si>
+  <si>
+    <t>晚上10点-晚上11点</t>
+  </si>
+  <si>
+    <t>打车时的学习时间</t>
+  </si>
+  <si>
+    <t>晚上11点半-晚上12点</t>
+  </si>
+  <si>
+    <t>自由时间</t>
+  </si>
+  <si>
+    <t>凌晨12点-早上8点</t>
+  </si>
+  <si>
+    <t>休息时间</t>
+  </si>
+  <si>
+    <t>早上8点-早上8点30</t>
+  </si>
+  <si>
+    <t>吃饭洗漱赶路时间</t>
+  </si>
+  <si>
+    <t>早上8点半-早上10点</t>
+  </si>
+  <si>
+    <t>学习时间</t>
   </si>
   <si>
     <t>关注自我</t>
@@ -150,21 +178,24 @@
     <t>去成都旅游/重启/海南全家旅游一次</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>关注事业</t>
+  </si>
+  <si>
+    <t>主业</t>
+  </si>
+  <si>
+    <t>一份长期稳定的工作</t>
+  </si>
+  <si>
+    <t>不用担心失业，工作强度不是太大（事业编/国企）</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>关注事业</t>
-  </si>
-  <si>
-    <t>主业</t>
-  </si>
-  <si>
-    <t>一份长期稳定的工作</t>
-  </si>
-  <si>
-    <t>不用担心失业，工作强度不是太大（事业编/国企）</t>
-  </si>
-  <si>
     <t>副业</t>
   </si>
   <si>
@@ -180,8 +211,8 @@
     <t>结束时间:</t>
   </si>
   <si>
-    <t>规划一：发展计划（积累人脉）:技术管理-&gt;产品专家-&gt;业务负责人-&gt;行业专家-&gt;企业高管
-规划二：公务员+第二副业（投资人/up主等）</t>
+    <t>规划一：上海考编
+规划二：RPA副业</t>
   </si>
   <si>
     <t>年份</t>
@@ -193,103 +224,62 @@
     <t>反思</t>
   </si>
   <si>
-    <t>整理完善的面试资料</t>
-  </si>
-  <si>
-    <t>老知识整理、新知识扩展、技术专家标准</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>积极性不高+绝大多数经历投入到了工作</t>
-  </si>
-  <si>
-    <t>现有工作</t>
-  </si>
-  <si>
-    <t>高年终奖+自身成长</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>掌握考公的套路</t>
-  </si>
-  <si>
-    <t>招聘、学习、考试、岗位</t>
-  </si>
-  <si>
-    <t>进入大健康行业</t>
-  </si>
-  <si>
-    <t>工资略涨、java专家、行业内独角兽级别（大公司能够满足落户需求）</t>
-  </si>
-  <si>
-    <t>1、积极性不高，当意识到的时候发现时间有点晚了
-2、资料整理+复习耗费了太多时间，碎片化学习记不住
-3、岗位较往年极少</t>
-  </si>
-  <si>
-    <t>时间的相对自由</t>
-  </si>
-  <si>
-    <t>离家近、加班少</t>
-  </si>
-  <si>
-    <t>参加公务员考试</t>
-  </si>
-  <si>
-    <t>优先考虑昆山、苏州，其次大丰</t>
-  </si>
-  <si>
-    <t>无目标+无积极性</t>
-  </si>
-  <si>
-    <t>成为大健康业务专家</t>
-  </si>
-  <si>
-    <t>同上</t>
-  </si>
-  <si>
-    <t>没想好是否要考公务员</t>
-  </si>
-  <si>
-    <t>高估了自己，低估了市场</t>
-  </si>
-  <si>
-    <t>参加上海事业编考试</t>
-  </si>
-  <si>
-    <t>希望能成功考进</t>
+    <t>完整知识点梳理一遍</t>
+  </si>
+  <si>
+    <t>相当于每一门都有对应的核心知识笔记</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>重要紧急</t>
+  </si>
+  <si>
+    <t>刷6套试卷</t>
+  </si>
+  <si>
+    <t>历年真题试卷</t>
+  </si>
+  <si>
+    <t>完成一份字帖练字</t>
+  </si>
+  <si>
+    <t>考编常见字,常见语句、段落等</t>
+  </si>
+  <si>
+    <t>RPA系统质量提升</t>
+  </si>
+  <si>
+    <t>稳定性、效率、视频质量</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
   <si>
     <t>重要不紧急</t>
   </si>
   <si>
-    <t>进入理想企业</t>
-  </si>
-  <si>
-    <t>央企/国企/优秀私企 （养老、医疗、金融、保险等）目的是闲和稳定</t>
-  </si>
-  <si>
-    <t>重要紧急</t>
-  </si>
-  <si>
-    <t>第二成长曲线</t>
-  </si>
-  <si>
-    <t>能够完成单机pc游戏的逆向开发/微信游戏开发流程掌握</t>
+    <t>扩展平台与通道</t>
+  </si>
+  <si>
+    <t>多平台多主题内容尝试</t>
+  </si>
+  <si>
+    <t>参加一次编制考试</t>
+  </si>
+  <si>
+    <t>探索新的RPA自动化领域</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -315,34 +305,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +322,21 @@
       <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,22 +357,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,22 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,11 +403,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,22 +439,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,25 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +517,12 @@
       </gradientFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="270">
         <stop position="0">
           <color rgb="FFA5E5FF"/>
@@ -565,121 +549,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,83 +729,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -866,75 +837,8 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -967,32 +871,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,20 +1036,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,28 +1088,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,16 +1113,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,167 +1141,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1424,204 +1324,186 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -2773,213 +2655,213 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.0673076923077" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6153846153846" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.0673076923077" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.6153846153846" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="16.3557692307692" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="50"/>
+      <c r="C13" s="37"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="50"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="37"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="50"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="37" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43" t="s">
         <v>28</v>
       </c>
+      <c r="C17" s="44" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>30</v>
       </c>
+      <c r="C18" s="45" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="50" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="49" t="s">
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="50" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="22" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="50"/>
-    </row>
-    <row r="23" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="50"/>
+      <c r="C20" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2987,7 +2869,7 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A16:A22"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
@@ -3002,332 +2884,332 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4519230769231" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.2980769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5865384615385" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4519230769231" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.0480769230769" style="18" customWidth="1"/>
+    <col min="3" max="3" width="37.2980769230769" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.8461538461538" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5865384615385" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="6" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>39</v>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="A23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="36"/>
+      <c r="A24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="A32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="38"/>
+      <c r="A33" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="42"/>
+      <c r="A34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3349,346 +3231,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6634615384615" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9326923076923" customWidth="1"/>
+    <col min="2" max="2" width="28.6826923076923" customWidth="1"/>
+    <col min="3" max="3" width="37.6538461538462" customWidth="1"/>
+    <col min="5" max="5" width="13.2884615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="14" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20210101</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="7">
-        <v>20260101</v>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2">
+        <v>20250101</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20280101</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="80" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="80.8" customHeight="1" spans="1:6">
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1" spans="1:6">
-      <c r="A6" s="13">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="E4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="27" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A11" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="C6" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="D6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="11"/>
+      <c r="B8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="D8" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A16" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A19" s="22">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A22" s="22">
-        <v>2025</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" ht="13.35" customHeight="1" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F11:F12"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>